--- a/data_year/zb/建筑业/按登记注册类型分建筑业企业税金总额.xlsx
+++ b/data_year/zb/建筑业/按登记注册类型分建筑业企业税金总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,466 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1147.53</v>
+        <v>3324.9747</v>
       </c>
       <c r="C2" t="n">
-        <v>295.66</v>
+        <v>635.0844</v>
       </c>
       <c r="D2" t="n">
-        <v>7.29</v>
+        <v>13.5637</v>
       </c>
       <c r="E2" t="n">
-        <v>1.21</v>
+        <v>4.8959</v>
       </c>
       <c r="F2" t="n">
-        <v>1159.79</v>
+        <v>3351.3129</v>
       </c>
       <c r="G2" t="n">
-        <v>4.97</v>
+        <v>12.7744</v>
       </c>
       <c r="H2" t="n">
-        <v>0.58</v>
+        <v>2.4353</v>
       </c>
       <c r="I2" t="n">
-        <v>99.66</v>
+        <v>147.8368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1386.42</v>
+        <v>3825.3152</v>
       </c>
       <c r="C3" t="n">
-        <v>323.77</v>
+        <v>674.63732</v>
       </c>
       <c r="D3" t="n">
-        <v>8.300000000000001</v>
+        <v>21.99962</v>
       </c>
       <c r="E3" t="n">
-        <v>2.64</v>
+        <v>5.93978</v>
       </c>
       <c r="F3" t="n">
-        <v>1401.49</v>
+        <v>3864.41075</v>
       </c>
       <c r="G3" t="n">
-        <v>6.77</v>
+        <v>17.09593</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>2.97863</v>
       </c>
       <c r="I3" t="n">
-        <v>98.66</v>
+        <v>159.76858</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1694.70411</v>
+        <v>4356.5120200001</v>
       </c>
       <c r="C4" t="n">
-        <v>366.61302</v>
+        <v>712.67881</v>
       </c>
       <c r="D4" t="n">
-        <v>11.80422</v>
+        <v>14.05053</v>
       </c>
       <c r="E4" t="n">
-        <v>3.49457</v>
+        <v>5.89875</v>
       </c>
       <c r="F4" t="n">
-        <v>1714.27481</v>
+        <v>4388.8841400001</v>
       </c>
       <c r="G4" t="n">
-        <v>7.76648</v>
+        <v>18.32159</v>
       </c>
       <c r="H4" t="n">
-        <v>1.43778</v>
+        <v>2.56774</v>
       </c>
       <c r="I4" t="n">
-        <v>110.62004</v>
+        <v>178.7142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2243.75999</v>
+        <v>5513.23142</v>
       </c>
       <c r="C5" t="n">
-        <v>473.45856</v>
+        <v>640.73178</v>
       </c>
       <c r="D5" t="n">
-        <v>11.60759</v>
+        <v>15.86846</v>
       </c>
       <c r="E5" t="n">
-        <v>4.37115</v>
+        <v>6.96698</v>
       </c>
       <c r="F5" t="n">
-        <v>2264.98334</v>
+        <v>5547.12279</v>
       </c>
       <c r="G5" t="n">
-        <v>9.61576</v>
+        <v>18.02291</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2183</v>
+        <v>2.53679</v>
       </c>
       <c r="I5" t="n">
-        <v>124.38357</v>
+        <v>164.17441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2631.33124</v>
+        <v>5637.7017799999</v>
       </c>
       <c r="C6" t="n">
-        <v>552.1005699999999</v>
+        <v>661.37119</v>
       </c>
       <c r="D6" t="n">
-        <v>12.33434</v>
+        <v>13.81704</v>
       </c>
       <c r="E6" t="n">
-        <v>3.45866</v>
+        <v>6.82464</v>
       </c>
       <c r="F6" t="n">
-        <v>2653.68569</v>
+        <v>5673.4089999999</v>
       </c>
       <c r="G6" t="n">
-        <v>10.02011</v>
+        <v>21.89018</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0815</v>
+        <v>3.38417</v>
       </c>
       <c r="I6" t="n">
-        <v>123.50477</v>
+        <v>156.96821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3324.9747</v>
+        <v>5942.7436</v>
       </c>
       <c r="C7" t="n">
-        <v>635.0844</v>
+        <v>665.6393</v>
       </c>
       <c r="D7" t="n">
-        <v>13.5637</v>
+        <v>14.19762</v>
       </c>
       <c r="E7" t="n">
-        <v>4.8959</v>
+        <v>5.48765</v>
       </c>
       <c r="F7" t="n">
-        <v>3351.3129</v>
+        <v>5977.44942</v>
       </c>
       <c r="G7" t="n">
-        <v>12.7744</v>
+        <v>20.5082</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4353</v>
+        <v>4.73683</v>
       </c>
       <c r="I7" t="n">
-        <v>147.8368</v>
+        <v>194.88795</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3825.3152</v>
+        <v>6334.4334</v>
       </c>
       <c r="C8" t="n">
-        <v>674.63732</v>
+        <v>644.2882</v>
       </c>
       <c r="D8" t="n">
-        <v>21.99962</v>
+        <v>11.69862</v>
       </c>
       <c r="E8" t="n">
-        <v>5.93978</v>
+        <v>5.35529</v>
       </c>
       <c r="F8" t="n">
-        <v>3864.41075</v>
+        <v>6367.31715</v>
       </c>
       <c r="G8" t="n">
-        <v>17.09593</v>
+        <v>21.18513</v>
       </c>
       <c r="H8" t="n">
-        <v>2.97863</v>
+        <v>5.0642</v>
       </c>
       <c r="I8" t="n">
-        <v>159.76858</v>
+        <v>203.93791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4356.5120200001</v>
+        <v>7468.20993</v>
       </c>
       <c r="C9" t="n">
-        <v>712.67881</v>
+        <v>700.77255</v>
       </c>
       <c r="D9" t="n">
-        <v>14.05053</v>
+        <v>18.75372</v>
       </c>
       <c r="E9" t="n">
-        <v>5.89875</v>
+        <v>9.031140000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>4388.8841400001</v>
+        <v>7502.85099</v>
       </c>
       <c r="G9" t="n">
-        <v>18.32159</v>
+        <v>15.88734</v>
       </c>
       <c r="H9" t="n">
-        <v>2.56774</v>
+        <v>3.84472</v>
       </c>
       <c r="I9" t="n">
-        <v>178.7142</v>
+        <v>220.41957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5513.23142</v>
+        <v>7129.07497</v>
       </c>
       <c r="C10" t="n">
-        <v>640.73178</v>
+        <v>617.19069</v>
       </c>
       <c r="D10" t="n">
-        <v>15.86846</v>
+        <v>17.16001</v>
       </c>
       <c r="E10" t="n">
-        <v>6.96698</v>
+        <v>9.986789999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>5547.12279</v>
+        <v>7163.09883</v>
       </c>
       <c r="G10" t="n">
-        <v>18.02291</v>
+        <v>16.86385</v>
       </c>
       <c r="H10" t="n">
-        <v>2.53679</v>
+        <v>3.56789</v>
       </c>
       <c r="I10" t="n">
-        <v>164.17441</v>
+        <v>198.68154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5637.7017799999</v>
+        <v>6920.92791</v>
       </c>
       <c r="C11" t="n">
-        <v>661.37119</v>
+        <v>693.5779700000001</v>
       </c>
       <c r="D11" t="n">
-        <v>13.81704</v>
+        <v>27.98633</v>
       </c>
       <c r="E11" t="n">
-        <v>6.82464</v>
+        <v>10.17827</v>
       </c>
       <c r="F11" t="n">
-        <v>5673.4089999999</v>
+        <v>6968.83004</v>
       </c>
       <c r="G11" t="n">
-        <v>21.89018</v>
+        <v>19.9158</v>
       </c>
       <c r="H11" t="n">
-        <v>3.38417</v>
+        <v>3.54258</v>
       </c>
       <c r="I11" t="n">
-        <v>156.96821</v>
+        <v>179.47568</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5942.7436</v>
+        <v>6997.2087</v>
       </c>
       <c r="C12" t="n">
-        <v>665.6393</v>
+        <v>712.64289</v>
       </c>
       <c r="D12" t="n">
-        <v>14.19762</v>
+        <v>28.80583</v>
       </c>
       <c r="E12" t="n">
-        <v>5.48765</v>
+        <v>16.57063</v>
       </c>
       <c r="F12" t="n">
-        <v>5977.44942</v>
+        <v>7052.36398</v>
       </c>
       <c r="G12" t="n">
-        <v>20.5082</v>
+        <v>26.34945</v>
       </c>
       <c r="H12" t="n">
-        <v>4.73683</v>
+        <v>4.42923</v>
       </c>
       <c r="I12" t="n">
-        <v>194.88795</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6334.4334</v>
-      </c>
-      <c r="C13" t="n">
-        <v>644.2882</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11.69862</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.35529</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6367.31715</v>
-      </c>
-      <c r="G13" t="n">
-        <v>21.18513</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5.0642</v>
-      </c>
-      <c r="I13" t="n">
-        <v>203.93791</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7468.20993</v>
-      </c>
-      <c r="C14" t="n">
-        <v>700.77255</v>
-      </c>
-      <c r="D14" t="n">
-        <v>18.75372</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.031140000000001</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7502.85099</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15.88734</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.84472</v>
-      </c>
-      <c r="I14" t="n">
-        <v>220.41957</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7129.07497</v>
-      </c>
-      <c r="C15" t="n">
-        <v>617.19069</v>
-      </c>
-      <c r="D15" t="n">
-        <v>17.16001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.986789999999999</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7163.09883</v>
-      </c>
-      <c r="G15" t="n">
-        <v>16.86385</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.56789</v>
-      </c>
-      <c r="I15" t="n">
-        <v>198.68154</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6920.92791</v>
-      </c>
-      <c r="C16" t="n">
-        <v>693.5779700000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>27.98633</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10.17827</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6968.83004</v>
-      </c>
-      <c r="G16" t="n">
-        <v>19.9158</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.54258</v>
-      </c>
-      <c r="I16" t="n">
-        <v>179.47568</v>
+        <v>144.17168</v>
       </c>
     </row>
   </sheetData>
